--- a/data.xlsx
+++ b/data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -20,25 +20,31 @@
     <t>Age</t>
   </si>
   <si>
-    <t>City</t>
+    <t>Email</t>
   </si>
   <si>
-    <t>Thiru</t>
+    <t>John Doe</t>
   </si>
   <si>
-    <t>Dharmapuri</t>
+    <t>john@test.com</t>
   </si>
   <si>
-    <t>Deva</t>
+    <t>Jane Doe</t>
   </si>
   <si>
-    <t>pudhuKottai</t>
+    <t>jane@test.com</t>
   </si>
   <si>
-    <t>Mohan</t>
+    <t>Boby Smith</t>
   </si>
   <si>
-    <t>Madurai</t>
+    <t>jack@example.com</t>
+  </si>
+  <si>
+    <t>Swapnil</t>
+  </si>
+  <si>
+    <t>swapnil@example.com</t>
   </si>
 </sst>
 </file>
@@ -83,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -105,7 +111,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>23.0</v>
+        <v>30.0</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>4</v>
@@ -116,7 +122,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
@@ -127,10 +133,21 @@
         <v>7</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>23.0</v>
+        <v>35.0</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>37.0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
